--- a/racun.xlsx
+++ b/racun.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>datum</t>
   </si>
@@ -55,12 +55,36 @@
   </si>
   <si>
     <t>60 min</t>
+  </si>
+  <si>
+    <t>245 min</t>
+  </si>
+  <si>
+    <t>230 min</t>
+  </si>
+  <si>
+    <t>280 min</t>
+  </si>
+  <si>
+    <t>305 min</t>
+  </si>
+  <si>
+    <t>345 min</t>
+  </si>
+  <si>
+    <t>450 min</t>
+  </si>
+  <si>
+    <t>45 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -115,20 +139,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,252 +460,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G30"/>
+  <dimension ref="B3:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>11.06</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>1800</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>14.06</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>1800</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>17.059999999999999</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>1800</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>24.06</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="5">
         <v>2800</v>
       </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>30.06</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="5">
         <v>2400</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>1.07</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="5">
         <v>2200</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>14.07</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="5">
         <v>3000</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>15.07</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>16.07</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>2200</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>17.07</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>2200</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>18.07</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>1000</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>19.07</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>1200</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>20.07</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>2400</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1">
-        <f>SUM(D4:D16)</f>
-        <v>25300</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:7">
+    <row r="17" spans="2:4">
+      <c r="B17" s="3">
+        <v>21.07</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="3">
+        <v>29.07</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3">
+        <v>30.07</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="3">
+        <v>2.08</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7">
+        <v>6010</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="3">
+        <v>4.08</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="3">
+        <v>6.08</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="3">
+        <v>9.08</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="7">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="3">
+        <v>10.08</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="2:4">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:7">
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="11">
+        <f>SUM(D4:D25)</f>
+        <v>67210</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
       <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="C29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="11">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/racun.xlsx
+++ b/racun.xlsx
@@ -16,33 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>datum</t>
-  </si>
-  <si>
-    <t>vreme</t>
-  </si>
-  <si>
-    <t>iznos</t>
-  </si>
-  <si>
-    <t>90 min</t>
-  </si>
-  <si>
-    <t>140 min</t>
-  </si>
-  <si>
-    <t>120 min</t>
-  </si>
-  <si>
-    <t>110 min</t>
-  </si>
-  <si>
-    <t>150 min</t>
-  </si>
-  <si>
-    <t>25 min</t>
   </si>
   <si>
     <t>ukupno</t>
@@ -51,31 +27,10 @@
     <t>uplaceno</t>
   </si>
   <si>
-    <t>50 min</t>
+    <t>vreme (min)</t>
   </si>
   <si>
-    <t>60 min</t>
-  </si>
-  <si>
-    <t>245 min</t>
-  </si>
-  <si>
-    <t>230 min</t>
-  </si>
-  <si>
-    <t>280 min</t>
-  </si>
-  <si>
-    <t>305 min</t>
-  </si>
-  <si>
-    <t>345 min</t>
-  </si>
-  <si>
-    <t>450 min</t>
-  </si>
-  <si>
-    <t>45 min</t>
+    <t>iznos (din)</t>
   </si>
 </sst>
 </file>
@@ -139,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,11 +107,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G40"/>
+  <dimension ref="B3:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -489,10 +439,11 @@
       <c r="B4" s="3">
         <v>11.06</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
+      <c r="C4" s="3">
+        <v>90</v>
       </c>
       <c r="D4" s="5">
+        <f>C4*20</f>
         <v>1800</v>
       </c>
     </row>
@@ -500,10 +451,11 @@
       <c r="B5" s="3">
         <v>14.06</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>3</v>
+      <c r="C5" s="3">
+        <v>90</v>
       </c>
       <c r="D5" s="5">
+        <f>C5*20</f>
         <v>1800</v>
       </c>
     </row>
@@ -511,10 +463,11 @@
       <c r="B6" s="3">
         <v>17.059999999999999</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
+      <c r="C6" s="3">
+        <v>90</v>
       </c>
       <c r="D6" s="5">
+        <f>C6*20</f>
         <v>1800</v>
       </c>
     </row>
@@ -522,10 +475,11 @@
       <c r="B7" s="3">
         <v>24.06</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
+      <c r="C7" s="3">
+        <v>140</v>
       </c>
       <c r="D7" s="5">
+        <f>C7*20</f>
         <v>2800</v>
       </c>
     </row>
@@ -533,10 +487,11 @@
       <c r="B8" s="3">
         <v>30.06</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
+      <c r="C8" s="3">
+        <v>120</v>
       </c>
       <c r="D8" s="5">
+        <f>C8*20</f>
         <v>2400</v>
       </c>
     </row>
@@ -544,10 +499,11 @@
       <c r="B9" s="3">
         <v>1.07</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
+      <c r="C9" s="3">
+        <v>110</v>
       </c>
       <c r="D9" s="5">
+        <f>C9*20</f>
         <v>2200</v>
       </c>
     </row>
@@ -555,10 +511,11 @@
       <c r="B10" s="3">
         <v>14.07</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
+      <c r="C10" s="3">
+        <v>150</v>
       </c>
       <c r="D10" s="5">
+        <f>C10*20</f>
         <v>3000</v>
       </c>
     </row>
@@ -566,10 +523,11 @@
       <c r="B11" s="3">
         <v>15.07</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>8</v>
+      <c r="C11" s="3">
+        <v>25</v>
       </c>
       <c r="D11" s="5">
+        <f>C11*20</f>
         <v>500</v>
       </c>
     </row>
@@ -577,10 +535,11 @@
       <c r="B12" s="3">
         <v>16.07</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="3">
+        <v>110</v>
+      </c>
+      <c r="D12" s="5">
+        <f>C12*20</f>
         <v>2200</v>
       </c>
     </row>
@@ -588,10 +547,11 @@
       <c r="B13" s="3">
         <v>17.07</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="3">
+        <v>110</v>
+      </c>
+      <c r="D13" s="5">
+        <f t="shared" ref="D13:D16" si="0">C13*20</f>
         <v>2200</v>
       </c>
     </row>
@@ -599,10 +559,11 @@
       <c r="B14" s="3">
         <v>18.07</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="3">
+        <v>50</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
@@ -610,10 +571,11 @@
       <c r="B15" s="3">
         <v>19.07</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C15" s="3">
+        <v>60</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
@@ -621,10 +583,11 @@
       <c r="B16" s="3">
         <v>20.07</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="C16" s="3">
+        <v>120</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
     </row>
@@ -632,10 +595,11 @@
       <c r="B17" s="3">
         <v>21.07</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="3">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5">
+        <f>C17*20</f>
         <v>1000</v>
       </c>
     </row>
@@ -643,10 +607,11 @@
       <c r="B18" s="3">
         <v>29.07</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="3">
+        <v>245</v>
+      </c>
+      <c r="D18" s="5">
+        <f>C18*20</f>
         <v>4900</v>
       </c>
     </row>
@@ -654,10 +619,11 @@
       <c r="B19" s="3">
         <v>30.07</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="3">
+        <v>230</v>
+      </c>
+      <c r="D19" s="5">
+        <f>C19*20</f>
         <v>4600</v>
       </c>
     </row>
@@ -665,10 +631,11 @@
       <c r="B20" s="3">
         <v>2.08</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="3">
+        <v>280</v>
+      </c>
+      <c r="D20" s="5">
+        <f>C20*20</f>
         <v>5600</v>
       </c>
     </row>
@@ -676,21 +643,23 @@
       <c r="B21" s="3">
         <v>3.08</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7">
-        <v>6010</v>
+      <c r="C21" s="3">
+        <v>305</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:D28" si="1">C21*20</f>
+        <v>6100</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="3">
         <v>4.08</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="3">
+        <v>150</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
     </row>
@@ -698,10 +667,11 @@
       <c r="B23" s="3">
         <v>6.08</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="3">
+        <v>345</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
         <v>6900</v>
       </c>
     </row>
@@ -709,10 +679,11 @@
       <c r="B24" s="3">
         <v>9.08</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="3">
+        <v>450</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
         <v>9000</v>
       </c>
     </row>
@@ -720,62 +691,83 @@
       <c r="B25" s="3">
         <v>10.08</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8">
-        <v>900</v>
+      <c r="C25" s="3">
+        <v>105</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>2100</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="3">
+        <v>11.08</v>
+      </c>
+      <c r="C26" s="3">
+        <v>165</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>3300</v>
+      </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="3">
+        <v>12.08</v>
+      </c>
+      <c r="C27" s="3">
+        <v>100</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="11">
-        <f>SUM(D4:D25)</f>
-        <v>67210</v>
+      <c r="B28" s="3">
+        <v>13.08</v>
+      </c>
+      <c r="C28" s="3">
+        <v>180</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>3600</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="1"/>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="11">
-        <v>20000</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <f>SUM(D4:D28)</f>
+        <v>77400</v>
+      </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="8">
+        <v>25000</v>
+      </c>
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="1"/>
@@ -791,6 +783,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
+      <c r="G36" s="2"/>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="1"/>
@@ -811,6 +804,21 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
